--- a/data/trans_orig/P14A20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A20-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{583C60A4-3AD3-4BA9-B616-8EFED3A60F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9E76C7-ADE7-4A7D-B532-A20C6C342311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{246489F2-A733-49E4-ADD7-47908607DDFC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{530F0BD2-9AFD-40ED-8D2B-F589FDB42BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>27,97%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>72,03%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -147,19 +147,19 @@
     <t>50,16%</t>
   </si>
   <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
   </si>
   <si>
     <t>56,4%</t>
   </si>
   <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
   </si>
   <si>
     <t>33,15%</t>
@@ -174,19 +174,19 @@
     <t>49,84%</t>
   </si>
   <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
   </si>
   <si>
     <t>43,6%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -204,13 +204,13 @@
     <t>19,79%</t>
   </si>
   <si>
-    <t>79,77%</t>
+    <t>80,25%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>70,79%</t>
+    <t>70,8%</t>
   </si>
   <si>
     <t>52,36%</t>
@@ -219,67 +219,67 @@
     <t>80,21%</t>
   </si>
   <si>
-    <t>20,23%</t>
+    <t>19,75%</t>
   </si>
   <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>29,21%</t>
+    <t>29,2%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
   </si>
   <si>
     <t>60,66%</t>
   </si>
   <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -291,115 +291,115 @@
     <t>55,72%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>48,98%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
   </si>
   <si>
     <t>44,28%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
   </si>
   <si>
     <t>51,02%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
   </si>
   <si>
     <t>52,61%</t>
   </si>
   <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>47,61%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
   </si>
   <si>
     <t>49,56%</t>
   </si>
   <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>47,39%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
   </si>
   <si>
     <t>52,39%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
   </si>
   <si>
     <t>50,44%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
   </si>
   <si>
     <t>24,56%</t>
   </si>
   <si>
-    <t>82,37%</t>
+    <t>88,26%</t>
   </si>
   <si>
     <t>0%</t>
@@ -411,13 +411,13 @@
     <t>16,52%</t>
   </si>
   <si>
-    <t>67,4%</t>
+    <t>74,2%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>17,63%</t>
+    <t>11,74%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -426,61 +426,61 @@
     <t>83,48%</t>
   </si>
   <si>
-    <t>32,6%</t>
+    <t>25,8%</t>
   </si>
   <si>
     <t>46,83%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
   </si>
   <si>
     <t>44,09%</t>
   </si>
   <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
   </si>
   <si>
     <t>53,17%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>54,75%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B1E791-950C-4D7B-BE24-6BB1471568E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12A5307-353B-400F-B552-BA2CD3BD1BEB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1643,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7791C73D-B4CA-4235-AA06-657DD713663A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E39F04-6B8E-4C10-8B17-6B9EC71E8D6F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A20-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9E76C7-ADE7-4A7D-B532-A20C6C342311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1576FD45-CD6F-4898-BDAF-092763416234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{530F0BD2-9AFD-40ED-8D2B-F589FDB42BA3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69421FAD-446E-4D34-9F82-694F952D4902}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="144">
   <si>
     <t>Población que recibe medicación o terapia por hemorroides en 2012 (Tasa respuesta: 1,2%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>27,97%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>72,03%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>66,85%</t>
   </si>
   <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>50,16%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>56,4%</t>
   </si>
   <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>43,6%</t>
   </si>
   <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -204,202 +204,190 @@
     <t>19,79%</t>
   </si>
   <si>
-    <t>80,25%</t>
+    <t>80,21%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>70,8%</t>
+    <t>72,2%</t>
   </si>
   <si>
     <t>52,36%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>29,2%</t>
+    <t>27,8%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
+    <t>68,84%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
+    <t>31,16%</t>
   </si>
   <si>
     <t>60,66%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por hemorroides en 2015 (Tasa respuesta: 1,07%)</t>
+    <t>Población que recibe medicación o terapia por hemorroides en 2016 (Tasa respuesta: 1,07%)</t>
   </si>
   <si>
     <t>55,72%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>48,98%</t>
   </si>
   <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
   </si>
   <si>
     <t>44,28%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
   </si>
   <si>
     <t>51,02%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
   </si>
   <si>
     <t>52,61%</t>
   </si>
   <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
   </si>
   <si>
     <t>47,61%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
   </si>
   <si>
     <t>49,56%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>47,39%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
   </si>
   <si>
     <t>52,39%</t>
   </si>
   <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>50,44%</t>
   </si>
   <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
   </si>
   <si>
     <t>24,56%</t>
   </si>
   <si>
-    <t>88,26%</t>
+    <t>83,85%</t>
   </si>
   <si>
     <t>0%</t>
@@ -411,13 +399,13 @@
     <t>16,52%</t>
   </si>
   <si>
-    <t>74,2%</t>
+    <t>65,13%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>11,74%</t>
+    <t>16,15%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -426,61 +414,61 @@
     <t>83,48%</t>
   </si>
   <si>
-    <t>25,8%</t>
+    <t>34,87%</t>
   </si>
   <si>
     <t>46,83%</t>
   </si>
   <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>44,09%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
   </si>
   <si>
     <t>53,17%</t>
   </si>
   <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>54,75%</t>
   </si>
   <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
 </sst>
 </file>
@@ -892,7 +880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12A5307-353B-400F-B552-BA2CD3BD1BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D9F726-907D-4702-8072-94F4384A5983}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1392,10 +1380,10 @@
         <v>4010</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>53</v>
@@ -1407,10 +1395,10 @@
         <v>5144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>53</v>
@@ -1481,13 +1469,13 @@
         <v>12615</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -1496,13 +1484,13 @@
         <v>21946</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -1511,13 +1499,13 @@
         <v>34562</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1532,13 +1520,13 @@
         <v>13513</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -1547,13 +1535,13 @@
         <v>33835</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -1562,13 +1550,13 @@
         <v>47347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,7 +1612,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E39F04-6B8E-4C10-8B17-6B9EC71E8D6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678EC971-E07D-4398-BB90-9F9053CE1BDD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1660,7 +1648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1767,13 +1755,13 @@
         <v>5863</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -1782,13 +1770,13 @@
         <v>9123</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -1797,13 +1785,13 @@
         <v>14986</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,13 +1806,13 @@
         <v>4659</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -1833,13 +1821,13 @@
         <v>9503</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -1848,13 +1836,13 @@
         <v>14162</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1910,13 @@
         <v>7859</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -1937,13 +1925,13 @@
         <v>11137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -1952,13 +1940,13 @@
         <v>18996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1961,13 @@
         <v>7079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -1988,13 +1976,13 @@
         <v>12255</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -2003,13 +1991,13 @@
         <v>19334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2065,13 @@
         <v>1983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2095,10 +2083,10 @@
         <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2107,13 +2095,13 @@
         <v>1983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,10 +2116,10 @@
         <v>6090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>53</v>
@@ -2146,7 +2134,7 @@
         <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2158,10 +2146,10 @@
         <v>10022</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>53</v>
@@ -2232,13 +2220,13 @@
         <v>15705</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2247,13 +2235,13 @@
         <v>20260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -2262,13 +2250,13 @@
         <v>35965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2271,13 @@
         <v>17828</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -2298,13 +2286,13 @@
         <v>25690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -2313,13 +2301,13 @@
         <v>43518</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,7 +2363,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
